--- a/organismo/Asociación de Municipalidades Territorio de Riego Canal LajaDiguillín.xlsx
+++ b/organismo/Asociación de Municipalidades Territorio de Riego Canal LajaDiguillín.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -419,15 +419,25 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>tipo_pago</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>num_cuotas</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Nombres2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>NOMBRECOMPLETO</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>NOMBRECOMPLETO2</t>
         </is>
@@ -478,17 +488,19 @@
       <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
         <is>
           <t>GINA MARIA</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>Gina Maria Hidalgo Cancino</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>GINA MARIA HIDALGO CANCINO</t>
         </is>

--- a/organismo/Asociación de Municipalidades Territorio de Riego Canal LajaDiguillín.xlsx
+++ b/organismo/Asociación de Municipalidades Territorio de Riego Canal LajaDiguillín.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -417,31 +417,6 @@
           <t>remuliquida_mensual</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>tipo_pago</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>num_cuotas</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Nombres2</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>NOMBRECOMPLETO</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>NOMBRECOMPLETO2</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -482,29 +457,12 @@
           <t>Abogada</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v>1400000</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>GINA MARIA</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Gina Maria Hidalgo Cancino</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>GINA MARIA HIDALGO CANCINO</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1400000,0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
